--- a/artfynd/A 3444-2023 artfynd.xlsx
+++ b/artfynd/A 3444-2023 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>129013194</v>
       </c>
       <c r="B3" t="n">
-        <v>56768</v>
+        <v>56772</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
